--- a/biology/Biologie cellulaire et moléculaire/Frances_Ashcroft/Frances_Ashcroft.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Frances_Ashcroft/Frances_Ashcroft.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frances Mary Ashcroft, née en 1952, est une généticienne britannique et physiologiste des canaux ioniques [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frances Mary Ashcroft, née en 1952, est une généticienne britannique et physiologiste des canaux ioniques .
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après ses études à la Talbot Heath School, Frances Ashcroft obtient une licence en sciences naturelles. En 1978, elle achève son doctorat en zoologie en 1978 à l'université de Cambridge avec une thèse intitulée Calcium electrogenesis in insect muscle[2]. Elle effectue ses recherches post-doctorales en physiologie à l'université de Leicester et à l'université de Californie à Los Angeles. Elle dirige ses recherches au laboratoire de physiologie à l'université d'Oxford[3] où elle dirige l'Oxford Centre for Gene Function et travaille également au Trinity College d'Oxford. Elle dirige également OXION, un programme de recherche sur les canaux ioniques géré par la fondation Wellcome Trust[4]. Elle effectue ses recherches sur les canaux potassiques sensibles à l'ATP et leur rôle dans la sécrétion de l'insuline. Elle est connue également pour ses travaux sur le diabète de type 2 et le diabète néonatal[5]. Ses travaux avec Andrew Hattersley ont aidé les enfants nés avec du diabète à passer à un traitement par injections d'insuline à un traitement par comprimé. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après ses études à la Talbot Heath School, Frances Ashcroft obtient une licence en sciences naturelles. En 1978, elle achève son doctorat en zoologie en 1978 à l'université de Cambridge avec une thèse intitulée Calcium electrogenesis in insect muscle. Elle effectue ses recherches post-doctorales en physiologie à l'université de Leicester et à l'université de Californie à Los Angeles. Elle dirige ses recherches au laboratoire de physiologie à l'université d'Oxford où elle dirige l'Oxford Centre for Gene Function et travaille également au Trinity College d'Oxford. Elle dirige également OXION, un programme de recherche sur les canaux ioniques géré par la fondation Wellcome Trust. Elle effectue ses recherches sur les canaux potassiques sensibles à l'ATP et leur rôle dans la sécrétion de l'insuline. Elle est connue également pour ses travaux sur le diabète de type 2 et le diabète néonatal. Ses travaux avec Andrew Hattersley ont aidé les enfants nés avec du diabète à passer à un traitement par injections d'insuline à un traitement par comprimé. 
 </t>
         </is>
       </c>
@@ -542,16 +556,18 @@
           <t>Récompenses et honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1999: Membre de la Royal Society[6]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1999: Membre de la Royal Society
 2003 : Doctorat honoris causa par l'Open University.
 2007:
-Docteur en sciences de l'université de Leicester[2]
-Prix Walter Bradford Cannon de la société américaine de physiologie[7]
-2012: Prix L'Oréal-Unesco pour les femmes et la science pour ses contributions à la compréhension de la sécrétion d’insuline et du diabète chez le nouveau-né[8].
-2013: Croonian Lecture sur l'invitation de la Royal Society[9]
-2015: Dame commandeur de l'ordre de l'Empire britannique[10]</t>
+Docteur en sciences de l'université de Leicester
+Prix Walter Bradford Cannon de la société américaine de physiologie
+2012: Prix L'Oréal-Unesco pour les femmes et la science pour ses contributions à la compréhension de la sécrétion d’insuline et du diabète chez le nouveau-né.
+2013: Croonian Lecture sur l'invitation de la Royal Society
+2015: Dame commandeur de l'ordre de l'Empire britannique</t>
         </is>
       </c>
     </row>
@@ -579,7 +595,9 @@
           <t>Publication selective</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ion Channels and Disease: Channelopathies on channelopathic disease, 1999, Academic Press,
 Life at the Extremes: The Science of Survival, 2000, Harper Collins
